--- a/Dokumentation/Spenden.xlsx
+++ b/Dokumentation/Spenden.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Name</t>
   </si>
@@ -61,12 +61,15 @@
   </si>
   <si>
     <t>Rest (360€) Stand 30.05.</t>
+  </si>
+  <si>
+    <t>Jessi (voller Name folgt)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -386,7 +389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -397,7 +400,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -420,7 +423,7 @@
       </c>
       <c r="H1" s="2">
         <f>SUM(B2:B37)</f>
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -491,7 +494,12 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="1"/>
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>10</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>

--- a/Dokumentation/Spenden.xlsx
+++ b/Dokumentation/Spenden.xlsx
@@ -63,7 +63,7 @@
     <t>Rest (360€) Stand 30.05.</t>
   </si>
   <si>
-    <t>Jessi (voller Name folgt)</t>
+    <t>Jessica Hörmann</t>
   </si>
 </sst>
 </file>
@@ -389,7 +389,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,7 +400,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Dokumentation/Spenden.xlsx
+++ b/Dokumentation/Spenden.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Name</t>
   </si>
@@ -64,12 +64,15 @@
   </si>
   <si>
     <t>Jessica Hörmann</t>
+  </si>
+  <si>
+    <t>Werner Tesch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="6" formatCode="#,##0\ &quot;€&quot;;[Red]\-#,##0\ &quot;€&quot;"/>
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
@@ -389,7 +392,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -400,18 +403,18 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
+    <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,7 +426,7 @@
       </c>
       <c r="H1" s="2">
         <f>SUM(B2:B37)</f>
-        <v>210</v>
+        <v>260</v>
       </c>
       <c r="K1" t="s">
         <v>8</v>
@@ -432,10 +435,10 @@
         <v>9</v>
       </c>
       <c r="M1" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -449,7 +452,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -463,7 +466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -477,7 +480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -485,7 +488,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -493,7 +496,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -501,136 +504,141 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B11" s="1"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B12" s="1"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B18" s="1"/>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B20" s="1"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="1"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="1"/>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B30" s="1"/>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B32" s="1"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="1"/>
     </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="1"/>
     </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
     </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="1"/>
     </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
     </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
     </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
     </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
     </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
     </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="1"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
     </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="1"/>
     </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
     </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
     </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
   </sheetData>

--- a/Dokumentation/Spenden.xlsx
+++ b/Dokumentation/Spenden.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -36,9 +36,6 @@
     <t>Lothar (Luise)</t>
   </si>
   <si>
-    <t>Anonym (Kramer?)</t>
-  </si>
-  <si>
     <t>Antonia Halm</t>
   </si>
   <si>
@@ -67,6 +64,12 @@
   </si>
   <si>
     <t>Werner Tesch</t>
+  </si>
+  <si>
+    <t>Familie Dir</t>
+  </si>
+  <si>
+    <t>Anonym</t>
   </si>
 </sst>
 </file>
@@ -403,7 +406,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -426,13 +429,13 @@
       </c>
       <c r="H1" s="2">
         <f>SUM(B2:B37)</f>
-        <v>260</v>
+        <v>290</v>
       </c>
       <c r="K1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" t="s">
         <v>8</v>
-      </c>
-      <c r="L1" t="s">
-        <v>9</v>
       </c>
       <c r="M1" s="3">
         <v>0</v>
@@ -446,7 +449,7 @@
         <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M2" s="3">
         <v>100</v>
@@ -460,7 +463,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M3" s="3">
         <v>100</v>
@@ -468,21 +471,21 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1">
         <v>100</v>
       </c>
       <c r="L4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" t="s">
         <v>12</v>
-      </c>
-      <c r="M4" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1">
         <v>20</v>
@@ -490,7 +493,7 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
@@ -498,7 +501,7 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>10</v>
@@ -506,14 +509,19 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="1"/>
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
